--- a/assets/generated/model3/ProductionCompletionTime.xlsx
+++ b/assets/generated/model3/ProductionCompletionTime.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>6490</v>
+        <v>5670</v>
       </c>
     </row>
   </sheetData>
